--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_end.xlsx
@@ -596,7 +596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]But no matter what, the entire time, I've been hoping for a better life for Kafka. I've been hoping for a better her. And that “better” was based on my standard of living at Rhine Lab.
+    <t xml:space="preserve">[name="Silence"]But no matter what, the entire time, I've been hoping for a better life for Kafka. I've been hoping for a better her. And that 'better' was based on my standard of living at Rhine Lab.
 </t>
   </si>
   <si>
@@ -620,7 +620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]Since the “Diαbolic Crisis,” what's been happening inside the company has had me starting to consider this.
+    <t xml:space="preserve">[name="Silence"]Since the 'Diαbolic Crisis,' what's been happening inside the company has had me starting to consider this.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_end.xlsx
@@ -316,7 +316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="サイレンス"]だから私のできる範囲で彼女に仕事を紹介した。一時はライン生命のメンバーになってもらおうとさえした、最後は失敗したけど。
+    <t xml:space="preserve">[name="サイレンス"]だから私のできる範囲で彼女に仕事を紹介した。一時はライン生命のメンバーになってもらおうとさえした、最終的に失敗したけど。
 </t>
   </si>
   <si>
